--- a/output/presence_change_metrics.xlsx
+++ b/output/presence_change_metrics.xlsx
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>-3</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>-3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/presence_change_metrics.xlsx
+++ b/output/presence_change_metrics.xlsx
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>-3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>-3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/output/presence_change_metrics.xlsx
+++ b/output/presence_change_metrics.xlsx
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>-3</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>-3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/presence_change_metrics.xlsx
+++ b/output/presence_change_metrics.xlsx
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
